--- a/docs/CSE310_Course_Material_Design.xlsx
+++ b/docs/CSE310_Course_Material_Design.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmacbeth\OneDrive - BYU-Idaho\CSE 310\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmacbeth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21105" windowHeight="6180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
   <si>
     <t>Prepare</t>
   </si>
@@ -189,9 +188,6 @@
     <t>Team Meeting</t>
   </si>
   <si>
-    <t>NOTE: Items highlighted in Blue have graded assessments</t>
-  </si>
-  <si>
     <t>Provide outline and guidelines for what they would share</t>
   </si>
   <si>
@@ -268,13 +264,22 @@
   </si>
   <si>
     <t xml:space="preserve">12b: Project Feedback </t>
+  </si>
+  <si>
+    <t>3. Career Ready: Demonstrate effective skills related to finding employment as a software programmer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Self-Reliant: Independently research and create computing solutions. </t>
+  </si>
+  <si>
+    <t>2. Team Player: Contribute and interact with peers to successfully develop software.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,8 +295,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -301,6 +313,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -325,10 +349,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -613,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,390 +666,466 @@
     <col min="2" max="2" width="35.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="D1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="10" t="s">
         <v>32</v>
       </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="10" t="s">
         <v>39</v>
       </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="D8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>56</v>
-      </c>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>63</v>
+      <c r="D11" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="11" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>64</v>
+      <c r="D14" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="11" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>6</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" t="s">
-        <v>75</v>
+      <c r="D17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>57</v>
+      <c r="D18" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>7</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="4"/>
+      <c r="D20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="11" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>8</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>67</v>
+      <c r="D23" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="D24" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>9</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>68</v>
+      <c r="D26" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="11" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>10</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>69</v>
+      <c r="D29" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>59</v>
+      <c r="D30" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>11</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="4"/>
+      <c r="D32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>12</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>71</v>
+      <c r="D35" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="2" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>13</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>72</v>
+      <c r="D39" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="B40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="11" t="s">
         <v>53</v>
       </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>14</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="3" t="s">
-        <v>73</v>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>60</v>
+      <c r="C43" s="8"/>
+      <c r="D43" s="11" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
